--- a/Shablon/AKIP-4119-1.xlsx
+++ b/Shablon/AKIP-4119-1.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="210">
   <si>
     <t>Параметр</t>
   </si>
@@ -570,23 +570,6 @@
         <charset val="204"/>
       </rPr>
       <t>пригоден к применению</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Протокол поверки № </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>10/25-11-2022/</t>
     </r>
   </si>
   <si>
@@ -1236,7 +1219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1365,7 +1348,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1399,12 +1381,139 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1413,134 +1522,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1880,7 +1862,7 @@
   <dimension ref="A1:S115"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:I10"/>
+      <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1898,17 +1880,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
@@ -1937,20 +1919,19 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+    <row r="3" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="82" t="str">
+        <f>"Протокол поверки № 10/"&amp;C83&amp;"/"&amp;D6</f>
+        <v>Протокол поверки № 10/_date/_numb</v>
+      </c>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -1989,16 +1970,16 @@
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="39"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
@@ -2009,14 +1990,14 @@
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
-      <c r="D6" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
+      <c r="D6" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
@@ -2027,14 +2008,14 @@
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="31"/>
-      <c r="D7" s="57">
+      <c r="D7" s="76">
         <v>2020</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
@@ -2045,14 +2026,14 @@
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="31"/>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
@@ -2063,14 +2044,14 @@
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
+      <c r="D9" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
@@ -2081,14 +2062,14 @@
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="31"/>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
@@ -2099,14 +2080,14 @@
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
@@ -2165,19 +2146,19 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59" t="s">
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="53" t="s">
+      <c r="E15" s="71"/>
+      <c r="F15" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="53"/>
+      <c r="G15" s="57"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2188,19 +2169,19 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:19" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="54" t="s">
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="73"/>
+      <c r="F16" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="55"/>
+      <c r="G16" s="74"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -2211,19 +2192,19 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="54" t="s">
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="73"/>
+      <c r="F17" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="55"/>
+      <c r="G17" s="74"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -2234,19 +2215,19 @@
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="54" t="s">
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="73"/>
+      <c r="F18" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="55"/>
+      <c r="G18" s="74"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -2454,23 +2435,23 @@
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="59" t="s">
+      <c r="C30" s="66"/>
+      <c r="D30" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="69" t="s">
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="I30" s="70"/>
+      <c r="I30" s="66"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -2479,9 +2460,9 @@
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="68"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="72"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="23" t="s">
         <v>11</v>
       </c>
@@ -2494,8 +2475,8 @@
       <c r="G31" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="71"/>
-      <c r="I31" s="72"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="68"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -2504,29 +2485,29 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="64"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="F32" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="G32" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="G32" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="H32" s="58" t="s">
+      <c r="H32" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="I32" s="58"/>
+      <c r="I32" s="52"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -2535,25 +2516,25 @@
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="58"/>
-      <c r="B33" s="63" t="s">
+      <c r="A33" s="52"/>
+      <c r="B33" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="64"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="F33" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="G33" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2562,29 +2543,29 @@
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="64"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="F34" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="G34" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="G34" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="H34" s="58" t="s">
+      <c r="H34" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="I34" s="58"/>
+      <c r="I34" s="52"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -2593,25 +2574,25 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="58"/>
-      <c r="B35" s="63" t="s">
+      <c r="A35" s="52"/>
+      <c r="B35" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="64"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="F35" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="G35" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="G35" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -2620,29 +2601,29 @@
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="63" t="s">
+      <c r="B36" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="64"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="F36" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="G36" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="G36" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="H36" s="58" t="s">
+      <c r="H36" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="I36" s="58"/>
+      <c r="I36" s="52"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -2651,25 +2632,25 @@
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="58"/>
-      <c r="B37" s="65" t="s">
+      <c r="A37" s="52"/>
+      <c r="B37" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="66"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="F37" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="G37" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="G37" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -2678,29 +2659,29 @@
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="64"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="F38" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="G38" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="G38" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H38" s="58" t="s">
+      <c r="H38" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="I38" s="58"/>
+      <c r="I38" s="52"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -2709,25 +2690,25 @@
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="58"/>
-      <c r="B39" s="65" t="s">
+      <c r="A39" s="52"/>
+      <c r="B39" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="66"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="F39" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="G39" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="G39" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -2736,29 +2717,29 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="64"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="F40" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="G40" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="G40" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="H40" s="58" t="s">
+      <c r="H40" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="I40" s="58"/>
+      <c r="I40" s="52"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -2767,25 +2748,25 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="58"/>
-      <c r="B41" s="63" t="s">
+      <c r="A41" s="52"/>
+      <c r="B41" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="64"/>
+      <c r="C41" s="54"/>
       <c r="D41" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="F41" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="G41" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G41" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -2794,29 +2775,29 @@
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="63" t="s">
+      <c r="B42" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="64"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="F42" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="G42" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="G42" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="H42" s="58" t="s">
+      <c r="H42" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="I42" s="58"/>
+      <c r="I42" s="52"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -2825,25 +2806,25 @@
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="58"/>
-      <c r="B43" s="73" t="s">
+      <c r="A43" s="52"/>
+      <c r="B43" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="74"/>
+      <c r="C43" s="59"/>
       <c r="D43" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="F43" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="G43" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="G43" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -2852,29 +2833,29 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="58" t="s">
+      <c r="A44" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="63" t="s">
+      <c r="B44" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="64"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="F44" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="G44" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="G44" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="H44" s="58" t="s">
+      <c r="H44" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="I44" s="58"/>
+      <c r="I44" s="52"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -2883,25 +2864,25 @@
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="58"/>
-      <c r="B45" s="73" t="s">
+      <c r="A45" s="52"/>
+      <c r="B45" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="74"/>
+      <c r="C45" s="59"/>
       <c r="D45" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="F45" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="G45" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="G45" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -2910,29 +2891,29 @@
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="64"/>
+      <c r="C46" s="54"/>
       <c r="D46" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="F46" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="G46" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="G46" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="H46" s="58" t="s">
+      <c r="H46" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="I46" s="58"/>
+      <c r="I46" s="52"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -2941,25 +2922,25 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="58"/>
-      <c r="B47" s="73" t="s">
+      <c r="A47" s="52"/>
+      <c r="B47" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="74"/>
+      <c r="C47" s="59"/>
       <c r="D47" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="F47" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="G47" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="G47" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -2992,24 +2973,24 @@
       <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:15" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="67" t="s">
+      <c r="A50" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53" t="s">
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G50" s="53"/>
+      <c r="G50" s="57"/>
       <c r="H50" s="34"/>
       <c r="I50" s="12"/>
     </row>
     <row r="51" spans="1:15" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="68"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="23" t="s">
         <v>11</v>
       </c>
@@ -3022,8 +3003,8 @@
       <c r="E51" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
       <c r="H51" s="34"/>
       <c r="I51" s="12"/>
     </row>
@@ -3031,22 +3012,22 @@
       <c r="A52" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="D52" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="D52" s="45" t="s">
+      <c r="E52" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="E52" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="F52" s="78">
+      <c r="F52" s="46">
         <v>70</v>
       </c>
-      <c r="G52" s="79"/>
+      <c r="G52" s="47"/>
       <c r="H52" s="32"/>
       <c r="I52" s="12"/>
     </row>
@@ -3054,20 +3035,20 @@
       <c r="A53" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="45" t="s">
+      <c r="D53" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="D53" s="45" t="s">
+      <c r="E53" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="E53" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="F53" s="80"/>
-      <c r="G53" s="81"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="49"/>
       <c r="H53" s="32"/>
       <c r="I53" s="12"/>
     </row>
@@ -3075,42 +3056,42 @@
       <c r="A54" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="C54" s="45" t="s">
+      <c r="D54" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="D54" s="45" t="s">
+      <c r="E54" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="E54" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="F54" s="82"/>
-      <c r="G54" s="83"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="51"/>
       <c r="H54" s="32"/>
       <c r="I54" s="12"/>
     </row>
     <row r="55" spans="1:15" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="67" t="s">
+      <c r="A55" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53" t="s">
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G55" s="53"/>
+      <c r="G55" s="57"/>
       <c r="H55" s="34"/>
       <c r="I55" s="12"/>
     </row>
     <row r="56" spans="1:15" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="68"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="23" t="s">
         <v>11</v>
       </c>
@@ -3123,8 +3104,8 @@
       <c r="E56" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
       <c r="H56" s="34"/>
       <c r="I56" s="12"/>
     </row>
@@ -3132,22 +3113,22 @@
       <c r="A57" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B57" s="45" t="s">
+      <c r="B57" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="C57" s="45" t="s">
+      <c r="D57" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="D57" s="45" t="s">
+      <c r="E57" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="E57" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="F57" s="78">
+      <c r="F57" s="46">
         <v>70</v>
       </c>
-      <c r="G57" s="79"/>
+      <c r="G57" s="47"/>
       <c r="H57" s="32"/>
       <c r="I57" s="12"/>
     </row>
@@ -3155,20 +3136,20 @@
       <c r="A58" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="45" t="s">
+      <c r="D58" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="D58" s="45" t="s">
+      <c r="E58" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="E58" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="F58" s="80"/>
-      <c r="G58" s="81"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="49"/>
       <c r="H58" s="32"/>
       <c r="I58" s="12"/>
     </row>
@@ -3176,20 +3157,20 @@
       <c r="A59" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="45" t="s">
+      <c r="D59" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="D59" s="45" t="s">
+      <c r="E59" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="E59" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="F59" s="80"/>
-      <c r="G59" s="81"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="49"/>
       <c r="H59" s="32"/>
       <c r="I59" s="12"/>
     </row>
@@ -3197,20 +3178,20 @@
       <c r="A60" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="45" t="s">
+      <c r="B60" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="C60" s="45" t="s">
+      <c r="D60" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="D60" s="45" t="s">
+      <c r="E60" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="E60" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="F60" s="80"/>
-      <c r="G60" s="81"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="49"/>
       <c r="H60" s="32"/>
       <c r="I60" s="12"/>
     </row>
@@ -3218,20 +3199,20 @@
       <c r="A61" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="45" t="s">
+      <c r="B61" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="C61" s="45" t="s">
+      <c r="D61" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D61" s="45" t="s">
+      <c r="E61" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="E61" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="F61" s="82"/>
-      <c r="G61" s="83"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="51"/>
       <c r="H61" s="32"/>
       <c r="I61" s="12"/>
     </row>
@@ -3289,19 +3270,19 @@
       <c r="O64" s="15"/>
     </row>
     <row r="65" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="67" t="s">
+      <c r="A65" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="54" t="s">
+      <c r="B65" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="76"/>
-      <c r="D65" s="76"/>
-      <c r="E65" s="76"/>
-      <c r="F65" s="53" t="s">
+      <c r="C65" s="62"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="G65" s="53"/>
+      <c r="G65" s="57"/>
       <c r="H65" s="34"/>
       <c r="I65" s="35"/>
       <c r="J65" s="12"/>
@@ -3312,7 +3293,7 @@
       <c r="O65" s="12"/>
     </row>
     <row r="66" spans="1:15" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="68"/>
+      <c r="A66" s="56"/>
       <c r="B66" s="13" t="s">
         <v>11</v>
       </c>
@@ -3325,8 +3306,8 @@
       <c r="E66" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57"/>
       <c r="H66" s="34"/>
       <c r="I66" s="24"/>
       <c r="J66" s="12"/>
@@ -3336,22 +3317,22 @@
       <c r="A67" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="46" t="s">
+      <c r="B67" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="C67" s="46" t="s">
+      <c r="D67" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="D67" s="46" t="s">
+      <c r="E67" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="E67" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="F67" s="58">
+      <c r="F67" s="52">
         <v>5</v>
       </c>
-      <c r="G67" s="58"/>
+      <c r="G67" s="52"/>
       <c r="H67" s="35"/>
       <c r="I67" s="27"/>
       <c r="J67" s="12"/>
@@ -3361,20 +3342,20 @@
       <c r="A68" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="46" t="s">
+      <c r="B68" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="C68" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="C68" s="46" t="s">
+      <c r="D68" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="D68" s="46" t="s">
+      <c r="E68" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="E68" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="F68" s="58"/>
-      <c r="G68" s="58"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
       <c r="H68" s="35"/>
       <c r="I68" s="27"/>
       <c r="J68" s="12"/>
@@ -3384,20 +3365,20 @@
       <c r="A69" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="46" t="s">
+      <c r="B69" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="C69" s="46" t="s">
+      <c r="D69" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="D69" s="46" t="s">
+      <c r="E69" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="E69" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="F69" s="58"/>
-      <c r="G69" s="58"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
       <c r="H69" s="35"/>
       <c r="I69" s="27"/>
       <c r="J69" s="12"/>
@@ -3407,20 +3388,20 @@
       <c r="A70" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B70" s="46" t="s">
+      <c r="B70" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="C70" s="46" t="s">
+      <c r="D70" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="D70" s="46" t="s">
+      <c r="E70" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="E70" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="F70" s="58"/>
-      <c r="G70" s="58"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
       <c r="H70" s="35"/>
       <c r="I70" s="27"/>
       <c r="J70" s="12"/>
@@ -3430,20 +3411,20 @@
       <c r="A71" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B71" s="46" t="s">
+      <c r="B71" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="C71" s="46" t="s">
+      <c r="D71" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="D71" s="46" t="s">
+      <c r="E71" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="E71" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F71" s="58"/>
-      <c r="G71" s="58"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
       <c r="H71" s="35"/>
       <c r="I71" s="27"/>
       <c r="J71" s="12"/>
@@ -3453,20 +3434,20 @@
       <c r="A72" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="46" t="s">
+      <c r="B72" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C72" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="C72" s="46" t="s">
+      <c r="D72" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="D72" s="46" t="s">
+      <c r="E72" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="E72" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
       <c r="H72" s="35"/>
       <c r="I72" s="27"/>
       <c r="J72" s="12"/>
@@ -3514,28 +3495,28 @@
       <c r="K75" s="12"/>
     </row>
     <row r="76" spans="1:15" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="58" t="s">
+      <c r="A76" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B76" s="58"/>
-      <c r="C76" s="53" t="s">
+      <c r="B76" s="52"/>
+      <c r="C76" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="57"/>
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
     </row>
     <row r="77" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="75">
+      <c r="A77" s="60">
         <v>94.8</v>
       </c>
-      <c r="B77" s="75"/>
-      <c r="C77" s="58">
+      <c r="B77" s="60"/>
+      <c r="C77" s="52">
         <v>1000</v>
       </c>
-      <c r="D77" s="58"/>
-      <c r="E77" s="58"/>
+      <c r="D77" s="52"/>
+      <c r="E77" s="52"/>
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
     </row>
@@ -3581,19 +3562,19 @@
       <c r="K80" s="15"/>
     </row>
     <row r="81" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="49" t="s">
+      <c r="A81" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="80"/>
+      <c r="C81" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B81" s="49"/>
-      <c r="C81" s="42" t="s">
+      <c r="D81" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="D81" s="50" t="s">
+      <c r="E81" s="81"/>
+      <c r="F81" s="42" t="s">
         <v>87</v>
-      </c>
-      <c r="E81" s="50"/>
-      <c r="F81" s="43" t="s">
-        <v>88</v>
       </c>
       <c r="G81" s="15"/>
       <c r="H81" s="15"/>
@@ -3616,13 +3597,13 @@
     </row>
     <row r="83" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
-      <c r="B83" s="44" t="s">
+      <c r="B83" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="D83" s="50"/>
+      <c r="D83" s="81"/>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="15"/>
@@ -4138,29 +4119,40 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="F57:G61"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="H34:I35"/>
-    <mergeCell ref="F52:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="F55:G56"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="F67:G72"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="F65:G66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="F50:G51"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="H40:I41"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:I31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H32:I33"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="H46:I47"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B35:C35"/>
@@ -4177,40 +4169,29 @@
     <mergeCell ref="H42:I43"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:I31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="F67:G72"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="F65:G66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="F57:G61"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="H34:I35"/>
+    <mergeCell ref="F52:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="F55:G56"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="F50:G51"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="H40:I41"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A50:A51"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283461" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
